--- a/Formative01/Data.xlsx
+++ b/Formative01/Data.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPaulson\Documents\MyWebSites\eProfessor\MIS362\Formative\Formative01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vn4655pt\source\repos\MIS362\Formative01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF84BF-F748-432C-863F-12B283C52F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8715"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="10760" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -66,12 +76,18 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Ounces</t>
+  </si>
+  <si>
+    <t>cost/ounce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -120,12 +136,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -406,19 +423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,10 +447,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -442,11 +466,19 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <f>B2</f>
+        <v>14.5</v>
+      </c>
+      <c r="E2" s="1">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <f>E2/D2</f>
+        <v>0.24551724137931036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -456,11 +488,19 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <f>CONVERT(B3,"g","ozm")</f>
+        <v>17.636980974790205</v>
+      </c>
+      <c r="E3" s="1">
         <v>8.4600000000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="0">E3/D3</f>
+        <v>0.47967393127500008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -470,11 +510,19 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <f>CONVERT(B4,"lbm","ozm")</f>
+        <v>48</v>
+      </c>
+      <c r="E4" s="1">
         <v>22.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4614583333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -484,11 +532,19 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <f t="shared" ref="D5:D7" si="1">CONVERT(B5,"lbm","ozm")</f>
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
         <v>19.149999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59843749999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -498,11 +554,19 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E6" s="1">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4375000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -512,11 +576,19 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E7" s="1">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1625000000000008E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -526,8 +598,16 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <f>CONVERT(B8,"g","ozm")</f>
+        <v>16.014378725109506</v>
+      </c>
+      <c r="E8" s="1">
         <v>14.84</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92666723166299569</v>
       </c>
     </row>
   </sheetData>
